--- a/artfynd/A 251-2026 artfynd.xlsx
+++ b/artfynd/A 251-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130609990</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130610001</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>130609987</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>130609991</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130610000</v>
+        <v>130610005</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1135,34 +1135,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lill-Gröndiket, Vb</t>
+          <t>Tallåsberget, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>745080</v>
+        <v>745224</v>
       </c>
       <c r="R6" t="n">
-        <v>7101519</v>
+        <v>7101586</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1194,7 +1190,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1204,12 +1200,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:04</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Färska ringhack</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1236,10 +1227,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130610005</v>
+        <v>130610000</v>
       </c>
       <c r="B7" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1247,30 +1238,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tallåsberget, Vb</t>
+          <t>Lill-Gröndiket, Vb</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>745224</v>
+        <v>745080</v>
       </c>
       <c r="R7" t="n">
-        <v>7101586</v>
+        <v>7101519</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1302,7 +1297,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1312,7 +1307,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Färska ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1342,7 +1342,7 @@
         <v>130609988</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>130609994</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>130609996</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>130610006</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>130610003</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
